--- a/xlsx/.edu_intext.xlsx
+++ b/xlsx/.edu_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>.edu</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>頂級域</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_.edu</t>
+    <t>顶级域</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_.edu</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%9E%E5%8A%A9%E7%B1%BB%E9%A1%B6%E7%BA%A7%E5%9F%9F</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國教育部</t>
+    <t>美国教育部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DNSSEC</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>大學</t>
+    <t>大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%95%86%E5%8A%A1%E9%83%A8</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%81%A9%C2%B7%E6%B3%A2%E6%96%AF%E7%89%B9%E7%88%BE</t>
   </si>
   <si>
-    <t>喬恩·波斯特爾</t>
+    <t>乔恩·波斯特尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Joyce_K._Reynolds</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8D%80%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>國家和地區頂級域</t>
+    <t>国家和地区顶级域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.college</t>
@@ -185,9 +185,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>通用頂級域</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/.biz</t>
   </si>
   <si>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%8F%8A%E5%9C%B0%E5%8D%80%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>國家及地區頂級域</t>
+    <t>国家及地区顶级域</t>
   </si>
 </sst>
 </file>
@@ -1585,7 +1582,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -1614,7 +1611,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -1640,10 +1637,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1669,10 +1666,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1698,10 +1695,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1727,10 +1724,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
@@ -1756,10 +1753,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1785,10 +1782,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1814,10 +1811,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1843,10 +1840,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1872,10 +1869,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1901,10 +1898,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1930,10 +1927,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -1959,10 +1956,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -1988,10 +1985,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2017,10 +2014,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
@@ -2046,10 +2043,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2075,10 +2072,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2104,10 +2101,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2133,10 +2130,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2191,10 +2188,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2220,10 +2217,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2249,10 +2246,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
@@ -2278,10 +2275,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2307,10 +2304,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2336,10 +2333,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>6</v>
@@ -2365,10 +2362,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2394,10 +2391,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2423,10 +2420,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2452,10 +2449,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2481,10 +2478,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2510,10 +2507,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2539,10 +2536,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2568,10 +2565,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2597,10 +2594,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2626,10 +2623,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -2655,10 +2652,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" t="s">
         <v>121</v>
-      </c>
-      <c r="F65" t="s">
-        <v>122</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -2684,10 +2681,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" t="s">
         <v>121</v>
-      </c>
-      <c r="F66" t="s">
-        <v>122</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2713,10 +2710,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" t="s">
         <v>121</v>
-      </c>
-      <c r="F67" t="s">
-        <v>122</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2742,10 +2739,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>120</v>
+      </c>
+      <c r="F68" t="s">
         <v>121</v>
-      </c>
-      <c r="F68" t="s">
-        <v>122</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -2771,10 +2768,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" t="s">
         <v>121</v>
-      </c>
-      <c r="F69" t="s">
-        <v>122</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2800,10 +2797,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>120</v>
+      </c>
+      <c r="F70" t="s">
         <v>121</v>
-      </c>
-      <c r="F70" t="s">
-        <v>122</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -2829,10 +2826,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>120</v>
+      </c>
+      <c r="F71" t="s">
         <v>121</v>
-      </c>
-      <c r="F71" t="s">
-        <v>122</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -2858,10 +2855,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" t="s">
         <v>121</v>
-      </c>
-      <c r="F72" t="s">
-        <v>122</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -2887,10 +2884,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>120</v>
+      </c>
+      <c r="F73" t="s">
         <v>121</v>
-      </c>
-      <c r="F73" t="s">
-        <v>122</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -2916,10 +2913,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" t="s">
         <v>121</v>
-      </c>
-      <c r="F74" t="s">
-        <v>122</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -2974,10 +2971,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>122</v>
+      </c>
+      <c r="F76" t="s">
         <v>123</v>
-      </c>
-      <c r="F76" t="s">
-        <v>124</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3003,10 +3000,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77" t="s">
         <v>125</v>
-      </c>
-      <c r="F77" t="s">
-        <v>126</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3032,10 +3029,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>126</v>
+      </c>
+      <c r="F78" t="s">
         <v>127</v>
-      </c>
-      <c r="F78" t="s">
-        <v>128</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3061,10 +3058,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>128</v>
+      </c>
+      <c r="F79" t="s">
         <v>129</v>
-      </c>
-      <c r="F79" t="s">
-        <v>130</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3090,10 +3087,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>130</v>
+      </c>
+      <c r="F80" t="s">
         <v>131</v>
-      </c>
-      <c r="F80" t="s">
-        <v>132</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3119,10 +3116,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>132</v>
+      </c>
+      <c r="F81" t="s">
         <v>133</v>
-      </c>
-      <c r="F81" t="s">
-        <v>134</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3148,10 +3145,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>130</v>
+      </c>
+      <c r="F82" t="s">
         <v>131</v>
-      </c>
-      <c r="F82" t="s">
-        <v>132</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3177,10 +3174,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>120</v>
+      </c>
+      <c r="F83" t="s">
         <v>121</v>
-      </c>
-      <c r="F83" t="s">
-        <v>122</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3206,10 +3203,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>134</v>
+      </c>
+      <c r="F84" t="s">
         <v>135</v>
-      </c>
-      <c r="F84" t="s">
-        <v>136</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3235,10 +3232,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>136</v>
+      </c>
+      <c r="F85" t="s">
         <v>137</v>
-      </c>
-      <c r="F85" t="s">
-        <v>138</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
